--- a/biology/Zoologie/Galago_moholi/Galago_moholi.xlsx
+++ b/biology/Zoologie/Galago_moholi/Galago_moholi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Galago moholi est une espèce de primate strepsirrhinien du genre Galago.
 On le rencontre dans les forêts tropicales de l'Angola, au Botswana, au Burundi, en République démocratique du Congo, au Malawi, au Mozambique, en Namibie, au Rwanda, en Afrique du Sud, au Swaziland, en Tanzanie, en Zambie, et au Zimbabwe.
@@ -517,6 +529,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
